--- a/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
+++ b/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\ItICM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/indst/iticm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1139410A-90C3-41D4-9E03-DC3844EDF4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF92772-C9A0-2F4D-AF35-1DEAB57FBC8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="460" windowWidth="26300" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -342,6 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,21 +625,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="10">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,115 +650,115 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>66</v>
       </c>
@@ -779,13 +783,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="39" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+    <col min="2" max="39" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -904,7 +908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1618,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
